--- a/consistency_matrix_test.xlsx
+++ b/consistency_matrix_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Scenario-Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4201F305-D613-492D-ADEB-E36D4CA867CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7616F0F-E6BB-47F1-8704-AA1AAF595D8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25305" yWindow="2790" windowWidth="11580" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14985" yWindow="2100" windowWidth="13110" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consistency matrix" sheetId="1" r:id="rId1"/>
@@ -20,27 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
-  <si>
-    <t>Portionsgröße</t>
-  </si>
-  <si>
-    <t>Hunger</t>
-  </si>
-  <si>
-    <t>Zeit</t>
-  </si>
-  <si>
-    <t>groß</t>
-  </si>
-  <si>
-    <t>klein</t>
-  </si>
-  <si>
-    <t>viel</t>
-  </si>
-  <si>
-    <t>wenig</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+  <si>
+    <t>Ölpreis</t>
+  </si>
+  <si>
+    <t>Wohnungsgröße</t>
+  </si>
+  <si>
+    <t>Klima</t>
+  </si>
+  <si>
+    <t>Steigt</t>
+  </si>
+  <si>
+    <t>Bleibt gleich</t>
+  </si>
+  <si>
+    <t>fällt</t>
+  </si>
+  <si>
+    <t>konstant</t>
+  </si>
+  <si>
+    <t>Wird größer</t>
+  </si>
+  <si>
+    <t>heißer</t>
+  </si>
+  <si>
+    <t>sehr viel heißer</t>
   </si>
 </sst>
 </file>
@@ -64,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -101,66 +110,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -463,155 +421,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F8"/>
+      <selection activeCell="D14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="E3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="G6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
